--- a/list.xlsx
+++ b/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GALAXYBOOK\Proyectos Lan\knowyourdrug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos LAN\knowyourdrug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC1026F-37C2-48A2-A077-098C2CD077A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12413753-6F55-4E35-A0C4-A8F44694233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14446" uniqueCount="4354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14447" uniqueCount="4354">
   <si>
     <t>Name</t>
   </si>
@@ -13436,8 +13436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14576,7 +14576,9 @@
       <c r="F30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H30" s="3" t="s">
         <v>69</v>
       </c>
